--- a/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412403</t>
   </si>
   <si>
-    <t>Jeff Denham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Denham. The subcommittee will come to order.    I ask unanimous consent that noncommittee members be permitted to sit with the committee at today's hearing and ask questions.    Without objection, so ordered.    First let me welcome our guests in attendance, as well as our witnesses, and I want to thank Ms. Pelosi. We had a nice conversation. This is a beautiful Federal building, and we enjoy this beautiful space being here in the bay area.    This hearing is about one thing, and that is continued oversight by the Federal Government. There is a huge investment by the Federal taxpayers, as well as by the State taxpayers. So the main focus of this hearing will be on that oversight. This project has been awarded nearly $4 billion in Federal funding, and it represents nearly 40 percent of all high-speed rail funding awarded by the Federal Railroad Administration, the     That is why I focused on this project since I became chairman of the Subcommittee on Railroads, Pipelines, and Hazardous Materials, and unfortunately I have watched as costs have gone up and up, and project plans have continued to change. When the voters of California approved this as Prop. 1A, they approved a $33 billion project that had equal funding from State, Federal, and private investors. Since then, this project has risen to $43 billion, then over $100 billion, and then cut back down to $64 billion by cutting off San Diego and Sacramento.    The 2016 business plan recently approved by the authority also had a new focus, connecting the Central Valley segment with the bay area via an electrified Caltrain corridor, with no near-term progress on closing the existing rail gap across the Tehachapi Mountains in southern California, meaning right now Amtrak has to let their passengers off to get on a bus, take the bus over the Tehachapis, and then get back on a train again. So this is something that we are going to have to address as this project moves forward through phase 1.    Today I want to explore what was originally promised to Californians when they approved Prop. 1A in 2008, where the project stands now, and whether there is a realistic plan to complete the project that was sold to voters. We must also look at the Federal taxpayer and what they are going to be on the hook for in the future. Meeting the project mandate may be more difficult than before if the 25-percent set-aside from the California Cap and Trade Program does not produce the revenues the authority is currently counting on. The early Cap and Trade options have not raised the revenue the State was originally expecting, and I look forward to discussing my concerns on that issue today.    I am also happy FRA Administrator Feinberg could be with us today, as her agency recently amended the grant agreement with the authority for the sixth time. I want to discuss the changes made in that agreement and also talk more broadly about what the ongoing Federal involvement with this project will be.    California voters narrowly passed in 2008 this plan before voters. If the project is going to move forward beyond current activities, we need to know what the State and Federal obligation is. If the authority can't provide specific deliverables and a timeframe, then I believe it would be time for Californians to go back to the polls to vote on whether to continue this project.    We have many problems facing California, most notably one of the worst droughts that we have ever seen. The money allocated to this project was part of the Federal stimulus package, which was done 8 years ago. In a State grappling with the lack of an adequate water infrastructure, we could have built long-term, sustainable water storage for a fraction of the cost. There are many shovel-ready projects that will directly benefit millions of California residents, including a number of rail projects in the bay area, a number of transportation projects across the State, and most critical is water infrastructure that could be built.    I would now like to recognize the ranking member, Mike Capuano from Massachusetts, for 5 minutes for any opening statement he may have.</t>
   </si>
   <si>
     <t>400063</t>
   </si>
   <si>
-    <t>Michael E. Capuano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman.    First of all, thank you all for having us here, and thank you for coming.    This is an important issue, as is any time the Federal Government spends your tax dollars. In this particular case, it is billions of dollars. I myself am a strong proponent of the concept of high-speed rail any place in this country that can support it. Certainly, I think there is a good argument by any stretch of the imagination that California should be able to handle and support a high-speed rail system.    I live in an area where what we have is old, and we struggle with problems of how to get it to a true high-speed system. You are building a new one, and my hope is that you can lead the way to show us how to improve our system.    One way or the other, America is going to have high-speed rail across this country. It will take time, it will cost money, and there will be mistakes made. There may or may not have been mistakes made here already, or there will be if there hasn't been already. That is normal. That is a normal part of the process. But I think that makes these oversight hearings even more important. Even if you are doing the best job possible, there are still differences of opinion, there are still people who make mistakes, things happen that you didn't anticipate, and therefore it is our responsibility to try our best to make sure that Federal tax dollars are spent as wisely as possible. That is why I wanted to come to California, and that is why I am looking forward to the testimony here today.    With that, I will yield back so we can hear from people who know what they are talking about.</t>
   </si>
   <si>
@@ -73,48 +67,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Feinberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Feinberg. Chairman Denham, Ranking Member Capuano, other Members who have joined us, thank you for inviting me to today's hearing.    Much attention has been paid to the urgent need for the United States to build a modern transportation system to keep up with our growing population, increased congestion, and more diverse economy. Congress rightfully recognized nearly 8 years ago that in order to achieve this goal, our transportation system must include more reliable, more frequent, and faster passenger rail service. Congress passed two landmark pieces of legislation that established FRA's High-Speed Rail Program, and then through the Recovery Act provided the seed money to build the system.    FRA and Congress conceived of a high-speed and intercity passenger rail program to be national in scope but led by the State in execution. With the launch of the program, there was immediate and significant interest. States submitted nearly 500 applications requesting more than $75 billion worth of projects, far exceeding the funds Congress had made available. FRA eventually awarded $10 billion to nearly 150 rail projects, including $3.5 billion to California.    With California's growing population, the State was understandably focused on building out a high-speed rail system that would serve its growing communities, because 2 railroad tracks can carry as many travelers in 1 hour as 16 lanes of a congested freeway. As the chairman knows and as anyone who lives, works, or visits the bay area or the Los Angeles area knows, they can recount far too many nightmare stories about congestion on the roads and in the sky: vehicular and air traffic at all times of day, constant commuters, families and businesses, hours of time and resources they can spend otherwise.    The L.A. to San Francisco flight alone has become one of the busiest and most delay-prone air markets in the United States. One in every five flights is late by more than an hour. And the challenges of moving more people and goods in a safe and efficient way will only continue to grow. By 2050, California is predicted to be home to another 12 million people. To add capacity to California's transportation system, the California High-Speed Rail Authority is leveraging the majority of the $3.5 billion that FRA awarded to construct the first 119 miles of rail in California's Central Valley.    The Federal investment made in California's high-speed rail is significant, and FRA takes its obligations to protect the taxpayers' investment seriously. FRA closely monitors the California project, as we do with all grants. With all major and ambitious transportation projects, there have been and remain important challenges that demand continued attention.    Consistent with grants management and oversight best practices, FRA works closely with all of our grantees to ensure that taxpayer dollars are spent wisely and that contractual agreements are current and adhered to.    To be clear, and despite reporting to the contrary, ensuring that a project is meeting its obligations and amending contractual grant agreements is not only a due diligence requirement but it is also standard practice for any agency that oversees grants.    Last spring, the California High-Speed Rail Authority and FRA executed the Sixth Amendment to ensure that the contractual agreement that exists between the two entities accurately reflects the current project status. California High-Speed Rail Authority also requested FRA's approval of a $60 million working capital advance for right-of-way acquisitions needed to allow construction work to progress and remain on schedule.    A working capital advance is one of the approved payment methods allowed under the Federal Government's stringent grant payment rules. This tool is available to any grantee and can be used effectively for timely right-of-way acquisition on large infrastructure projects across the country. In fact, other agencies, like the Department of Health and Human Services and the Department of Homeland Security, also use the same method of payment.    Mr. Chairman, in closing, for centuries leaders in California and across the United States have fulfilled bold projects. Many of these projects haven't been easy or without challenges, but they are worth the persistence and dedication because they are necessary to move our country forward. I believe this project is no different.    We continue to look forward to working with California, with Members of Congress, with your staff and your committee as we continue to make progress in bringing this project to completion. Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Ms. Feinberg.    Mr. Richard, the floor is yours.</t>
   </si>
   <si>
-    <t>412454</t>
-  </si>
-  <si>
-    <t>Richard L. Hanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richard. Thank you. Chairman Denham, Ranking Member Capuano, and other Members of this committee and the Congress, my name is Dan Richard. I am the chairman of the California High-Speed Rail Authority Board. I appreciate the opportunity to appear before you today to provide an update on the progress that California has made in developing the high-speed rail system.    The Federal Government, through actions by the Congress and the administration, has provided some $3.5 billion to commence design and construction of the system, funds that have proven vital to our initial efforts. Accordingly, oversight by the Congress through this committee is an important function to bolster public confidence that these funds are being well spent.    I am pleased also to share this panel with Administrator Feinberg of the Federal Railroad Administration. FRA has been a strong partner in this program, and we appreciate her leadership and that of her staff and her predecessors.    Mr. Chairman, I would like to summarize four key points in outlining our current status and progress.    First, the California high-speed Rail program is an essential element of the State's endeavor to build a sustainable economic future. The voters in 2008 approved what will ultimately be an 800-mile system with the first phase of 520 miles to connect Los Angeles, San Francisco, and the Central Valley. But what is more important here is that California is building much more than a high-speed train system. Our legislature in 2012 embarked on a $13 billion statewide rail modernization. High-speed rail is the backbone of that system, but that system extends to major improvements such as Caltrain electrification here on the San Francisco peninsula, improved Amtrak service, regional rail like Metrolink in Los Angeles, the ACE Train that is important in your district, Mr. Chairman, and much more.    All told, this rail modernization of California through statewide, regional and local systems will vault us into a more sustainable future and one that is also cheaper to build and maintain, much cheaper, in fact, than the cost of the equivalent mobility of new highways and airports required to sustain the 50 million people that we must serve by the middle of this decade--excuse me, by the middle of the century.    Second, high-speed rail construction in California is now underway. It is proceeding smoothly, and we are maintaining effective management and cost control of the program. We now have three sets of construction packages totaling $3 billion in progress across about 110 miles of the Central Valley. Hundreds of workers and scores of companies, including small business and disabled veteran businesses, are on the job.    But the indirect impacts have engaged thousands more already across the State. All of these construction contracts have come in under our engineer's estimates. In fact, the combined total, considering our low and high ranges, is that we have seen winning bids come in between $500 million and $1.7 billion less than we estimated these packages would cost us.    We have overcome startup problems like slower-than-expected right-of-way acquisition and higher costs for third-party contracts, but we are still well within our budget contingencies.    Third, our recent 2016 business plan marked a milestone in the development of the project. By emphasizing the completion of an initial operating segment from the Central Valley to the Silicon Valley, we laid out a plan that can be accomplished with available funds that are in hand or expected. Silicon Valley is the engine not only of California's economy but of the Nation's, and yet it faces severe limitations on housing and expansion. The Central Valley is historically an area of underinvestment. The prospect of connecting these areas of our State has generated enthusiasm in both regions. Significantly, based on more advanced engineering and experience to date, now our estimate for the total system completion has been reduced by some $6 billion.    My last point is that while we know this program has a controversial history and has had its share of hurdles, we are not only on track but I want to emphasize that we are absolutely fulfilling the purposes of the State bond act that launched this effort.    With respect, Mr. Chairman, I noticed that there was a statement that was included in the committee's notice of this hearing that said that the program no longer provides full high-speed rail service from Los Angeles to San Francisco. This is not correct. We are absolutely fulfilling the mandate of providing 200-mile-per-hour electrified service that is designed to achieve transit from L.A. to San Francisco in 2 hours and 40 minutes or less without an operating subsidy. There are no changes from that commitment.    As you know, we adopted the so-called blended system to share tracks with regional rail in urban areas like Caltrain, but that only constitutes about 15 percent of the track area, and this was suggested by one of your colleagues in the Congress and by local elected Representatives, and was recommended by an independent peer review group as something that could dramatically reduce costs while meeting the bond act requirements.    Unfortunately, this is one of many false narratives that have grown up around this program. I hope today's hearing will allow us to examine those issues and correct the record.    Mr. Chairman, thank you again for the honor of appearing before this committee. We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Richard.    Mr. Hartnett, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Hartnett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hartnett. Thank you very much, Mr. Chairman and Members. Good morning. Thank you for your attention to this issue and for inviting us to share a local perspective.    I am Jim Hartnett, the executive director of the Caltrain commuter rail system and the CEO of the San Mateo County Transit District. I am also a past member of the California High-Speed Rail Authority Board of Directors and a former mayor of Redwood City.    When voters approved Prop. 1A in 2008, it wasn't just about connecting the State with high-speed rail. It was also about improving transportation connectivity on existing systems. The measure included significant resources dedicated to upgrading local transportation services to feed the statewide network and to improve mobility options for surrounding communities.    Large-scale, visionary projects like high-speed rail can and should be planned and delivered in a way that prioritizes investments in local improvements while also making incremental but significant progress toward the long-term vision.    During my time on the California High-Speed Rail Authority Board, I worked with my colleagues to ensure that this approach would be embraced. The product of those efforts was SB 1029, which appropriated funding for high-speed rail construction in the Central Valley, but also directed over $1 billion for local and regional improvements on the bookends in southern California and the bay area. In our case, this State funding is being used to leverage over $1 billion in local, regional, and Federal funds to upgrade the Caltrain corridor and allow us to deliver more service at a time when our communities need it the most.    Caltrain is struggling to accommodate unprecedented regional growth. Two thousand sixteen marked our sixth consecutive year of record-setting ridership. As Highway 101 and 280 have become more and more congested, employers have turned to Caltrain as the preferred commute option between San Francisco and Silicon Valley. As a result, our peak-hour service is well over 100 percent capacity, with ridership on some trains exceeding 125 percent of available seats.    The Caltrain corridor is arguably the most economically productive area in the State. The communities served by our 51-mile railroad are responsible for 14 percent of the State's GDP, 20 percent of California tax revenue, and are the birthplace of over one-half of California patents.    However, the region cannot continue to thrive without equipping the 150-year-old rail corridor with a modernized transit system capable of accommodating current and future ridership demand.    Fortunately, with local, State and Federal help, Caltrain has been able to advance the Caltrain Modernization Program. The centerpiece of this program is the transformation of the corridor from its diesel fleet to a system that features high-performance electric trains capable of delivering cleaner, faster, and more frequent service to peninsula communities.    When complete, electrification of Caltrain will be able to serve more riders at more stations. As a result, 619,000 vehicle miles traveled will be eliminated every day and the system's emissions will be reduced by 97 percent, eliminating over 176,000 tons of CO2 annually.    Caltrain and the California High-Speed Rail Authority have worked with several local, regional and Federal partners to secure funding for the Caltrain Modernization Program as an early investment in the high-speed rail system. Six bay area funding partners have agreed to commit significant local funds in order to leverage over $700 million in high-speed rail and State funding, and these investments have positioned the project to receive almost $650 million in Federal Transit Administration discretionary grant funds.    Thanks to these commitments, Caltrain was able to authorize contractors to begin design work on the project. The next steps will be construction of the project and the procurement of electric trains, work that will create over $2.5 billion in economic value, including almost 10,000 new jobs during construction.    Meanwhile, we are also collaborating with the California High-Speed Rail Authority as it begins the environmental process for additional improvements that will be needed to equip the corridor to accommodate high-speed rail service. When high-speed rail is extended north of San Jose, Caltrain and the California High-Speed Rail Authority will share the corridor and operate on a blended system to San Francisco. The planning and design of these improvements will be carefully considered to ensure that impacts on surrounding neighborhoods are minimized and benefits are realized.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Hartnett.    Mr. Flashman, you are recognized.</t>
   </si>
   <si>
-    <t>Flashman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flashman. Thank you, Chairman Denham. Good morning, Chairman Denham, Mr. Capuano, and Congress Members. Thank you for the opportunity to testify today.    Let me start by saying that I have no conceptual problem with high-speed rail. High-speed rail systems in other countries have shown they can, if planned and implemented prudently, be cost-effective and improve transportation efficiency while reducing greenhouse gas emissions.    Here in California, however, too much has been promised and too little will be delivered. I will focus on legal issues affecting the California high-speed rail project's use of State funds and the associated risk to the Federal Treasury from the California High-Speed Rail Authority's, or CHSRA's, use of Federal grant funds for construction and other activities.    Before doing that, I want to comment briefly on CHSRA's current financial situation and why this issue is important. As my written testimony explains in more detail, CHSRA currently has only two sources of funds: $3.5 billion in Federal grant funds, and State funds, primarily Prop. 1A funds, plus a much smaller contribution from the greenhouse gas Cap and Trade auction proceeds.    Prop. 1A asked that CHSRA seek private funding, but no private entity has stepped forward to invest funds in the project to this point. There are good reasons for that. CHSRA has over $6 billion in appropriated funds, but restrictions on using Prop. 1A funds for construction prevent CHSRA from using those funds. Consequently, CHSRA current construction funding is limited to its Federal grants plus a small amount of Cap and Trade auction proceeds. In essence, CHSRA is like a steam engine with almost no coal left to shovel in its fire box. It may keep going for a while longer, but it will eventually run out of steam and stop cold.    The California Legislature, in writing Prop. 1A, was aware that voters were worried about the risk in approving more general obligation bonds that would eventually be on their shoulders. Consequently, it put into the measure what the California Court of Appeals has called a financial straitjacket, intended to reassure voters that the funds would not be wasted. There are stringent procedural and substantive requirements on how and when CHSRA can use the bond funds.    While the courts have allowed the legislature to appropriate bond funds without fully complying with Prop. 1A, those same courts have made clear that before those funds can be used for construction, CHSRA will have to comply with Prop. 1A's requirements. With CHSRA's currently politically motivated design, that is virtually impossible.    Prop. 1A requires CHSRA to show it has available all the funds needed to complete construction of a usable segment that will be suitable and ready for high-speed rail operation. CHSRA optimistically estimates that its current usable segment from Wasco to San Jose will cost over $20 billion. At most, CHSRA has maybe $6 to $8 billion in available funding. Unless CHSRA can show where it has squirreled away over $10 billion, it cannot meet that requirement.    In addition, service on that segment must be able to run without a public operating subsidy. Even if you accept CHSRA's highly optimistic ridership estimates, its usable segment is very unlikely to be able to do so. Consequently, no Prop. 1A funds can be used to build that segment.    Even if CHSRA could meet these procedural requirements, Prop. 1A's substantive requirements would still block use of Prop. 1A funds. Prop. 1A requires that trains be able to travel from the Transbay Transit Center in San Francisco to Los Angeles Union Station in no more than 2 hours and 40 minutes. With the indirect route that CHSRA has chosen, making the trip in less than 3 hours is basically impossible. Nor can the current legislatively mandated blended system meet the required 30-minute travel time between San Francisco and San Jose.    Further, the blended system, which requires CHSRA and Caltrain to share the same tracks between San Jose and San Francisco, also precludes meeting Prop. 1A's 5-minute headway requirement.    As for using Cap and Trade funds, that system is currently under legal challenge. Even if it survives, the current funding is only $4.5 million this year, and Cap and Trade's authorization runs out in 2020. With the legislature having rejected its extension and indicating a preference for a revenue-neutral carbon tax where the collected funds would be rebated to businesses and the public, that would leave no proceeds to fund high-speed rail.    In short, despite its optimistic statements at this point, CHSRA has no viable financial way forward.    As I said at the start, I believe a prudently planned and executed high-speed rail system could be beneficial for California. Unfortunately, CHSRA has given no indication that it intends to rethink its current disastrous course, which will result in more litigation but no useful rail project.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Flashman.    Mr. Hunter, you may proceed.</t>
   </si>
   <si>
-    <t>Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. Good morning, Chairman Denham, Ranking Member Capuano, members of the subcommittee. I appreciate the opportunity to appear before you today to discuss the California high-speed rail construction program.    I am the president of the State Building and Construction Trades Council of California. I am an iron worker by trade and spent 27 years working in the field building skyscrapers and bridges throughout California. Our council represents in excess of 400,000 skilled and trained California construction workers, including 48,000 apprentices that have graduated or the equivalent from California high schools.    Each and every one of these workers work for private construction companies building our harbors, airports, water treatment plants, freeways, transit systems, dams, as well as the vast majority of commercial and residential projects throughout the State.    These contractors that we work for need a streamlined, highly trained, competent work force to compete, using the least amount of people, building projects in the shortest timeframe, done once, done right, under the lowest bid.    The workforce that we represent drives the economy of California. They set aside a portion of their hourly wage for their pension and medical benefits and even in retirement are not a burden to the State or the Federal Government.    I am very proud to report that at this very moment, several hundred of these workers, who are residents of the Central Valley, are on the job building the high-speed rail in the Central Valley. This is an area where, during the Great Recession, we have had unemployment in excess of 60 percent, and the Valley itself has been a traditionally--has had some of the highest unemployment statewide in the general population. Now these workers are building the high-speed rail system that will transform the Valley and all of California.    Of course, I am happy that these workers are earning a paycheck, supporting their families, and driving the economy. But I am also gratified that they are creating a third mode of transportation, something that California desperately needs right now and that will greatly benefit the people of the State of California for generations to come.    Furthermore, the project is being built efficiently and economically. The best value bids for the first construction packages have ranged from 13 to 45 percent below the engineer's estimated cost, resulting in savings of hundreds of millions of dollars so far.    Decades from now, I believe California will look back with gratitude at the vision of this generation's leaders, whose foresight resulted in a magnificent, efficient high-speed rail system, less congestion on our roads, airports, and a healthier environment. We simply cannot afford to not build this vitally important infrastructure project.    California's transportation system is already overtaxed, and our population will pass 50 million by mid-century. Doing nothing will ultimately cost far more than building this essential system today. High-speed rail is the only viable means of making sure our transportation infrastructure can meet our growing demand.    Continuing to build more and more freeways and airports would be more expensive, more environmentally damaging, and less efficient for moving millions of Californians up and down the State.    In fact, the nonpartisan Legislative Analyst's Office has reported that the project would, and I am quoting, ``alleviate the need to build over 3,000 miles of freeway, and 5 airport runways and 90 new departure gates--at a cost of nearly $100 billion--that would otherwise be necessary to accommodate interstate travel by 2030.''    By saving $100 billion, the project pays for itself. To remove any doubt, just look at the spectacular success of high-speed rail around the world. We have learned from places like Spain, France, China, Germany, Japan, and many other countries that high-speed rail is the more efficient and preferred mode of transportation between population centers between 100 and 500 miles. That is precisely the corridor California's high-speed rail will serve.    High-speed rail is working breathtakingly well everywhere else in the world. California needs its great benefits even more. As the 2008 ballot summary language points out, high-speed rail will provide long-distance commuters with a safe, convenient, affordable, clean and reliable alternative to driving and high gas prices. It will reduce traffic congestion on California's highways and at the State's airports. It will reduce California's dependence on foreign oil. It will reduce air pollution and global warming greenhouse gases. It will provide fast, time-saving connections between California's major population hubs. It will bring thousands of good jobs to working families across the State.    We cannot afford to fall behind the rest of the country, the rest of the world. Our State needs the economic, environmental, and quality-of-life benefits of a third mode of a clean, fast, mass transit system to meet the needs of our children and grandchildren just as generations before us paid for and built the infrastructure that has supported today's population and economy. We need to build this system.    I would say that we have built the infrastructure of California, the building trades, for over 130 years. We were criticized heavily on the Golden Gate Bridge. It was the first bridge to nowhere. The Hoover Dam----</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t xml:space="preserve">    Mr. Denham. Mr. Huffman, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Appreciate that. Thank you.    Thank you, Mr. Chairman, for having this hearing, and thanks to our terrific witnesses for joining us.    I especially want to welcome you, Administrator Feinberg. It seems like just yesterday I was touring in Marin and Sonoma County on the Smart Rail project, which is an exciting project where our communities are bringing back commuter rail. Thanks to the support of your agency and others, that is going to be reality in just a couple of more months. It will open on day one as one of the safest passenger rail systems in the United States, again with your support for Positive Train Control, so thank you very much.    I appreciate that Mr. Hunter in his remarks reminded us that there was another really big, transformative, and yet controversial project nearby. It happens to be the defining southern feature of my congressional district, the Golden Gate Bridge. What people sometimes don't appreciate, because it is such an iconic piece of infrastructure now that is taken for granted, is that it was very controversial in its time. Over 2,000 lawsuits were filed to stop this project in the 1930s. It went through several different designs. They were all very controversial. There were huge cost overruns. Yet, if you went to my district today, or I would say anyplace else in California, and asked people if you would like to go backward, they would probably laugh at you. It has been a huge success.    So when we talk about this project and the promise of high-speed rail, we should talk about cost, we should talk about budgets and plans and the challenges this project faces. But we should also think about the cost of inaction and the benefits it brings.    So, Mr. Richard, I am especially grateful to have the conversation with you at this point in the project's history because in a prior life as a State legislator on the budget committee, I do remember lots of conversations with your predecessor where I had lost confidence in the ability of California to realize the promise and the vision of high-speed rail. The project was in complete drift, and yet today construction is underway. Construction contracts are coming in under budget, and it does seem that through innovation and creativity we are poised to actually make this happen in California, and it is in no small part due to your leadership, so thank you for that.    That doesn't mean your critics have gone away, so I want to ask you about a couple of points that Mr. Flashman has very eloquently laid out in his remarks. Specifically--and these are points that we have heard for some time now as criticisms of the project--the assertion that financially you can't get there from here because of limitations and constraints on funding in Prop. 1A and the Federal funding, that when you add it all up, the dollars just don't connect and you can't get there from here.    And the second one is the impossibility of achieving the speed and travel times that have been promised, I believe, between Wasco and San Jose.    So I want to give you a chance to speak directly to those claims that have been levied, and also to the extent you can because, again, these are not new claims--they have been part of litigation--what the courts have said as well about these matters.</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much.    Administrator Feinberg, I would like to start with you. There is a high-speed rail project entirely privately funded going on in Texas, my home State, right now. They are looking at going from Houston to Dallas at an estimated cost of about $10 billion for the project cost.    I understand things are more expensive in California. I just paid $3 for a Dr. Pepper here. But we are looking at money six times more expensive for a rail that isn't even twice as long. Do you have any thoughts on the cost differential? And then I will pass that along to Mr. Richard as well, if he wants to. I will allow you to pump that to Mr. Richard if you would like to.</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t xml:space="preserve">    Mr. Denham. Ms. Lofgren?</t>
   </si>
   <si>
-    <t>Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you. Thank you, Mr. Chairman, for allowing me to participate in this hearing.    It has already been said that it is not just what we are building but what would happen if we didn't build this, and I think it is important to keep that in mind. California is going to have a lot of growth. It needs to be accommodated. To try to meet that growth with airports and roads is just not viable.    I know also, before I ever ran for Congress, I was in local government, and I remember building big projects. It is easy to criticize, harder to build. When we built Highway 85 down in Santa Clara County, the section from 101 to 280 was done and it took decades to get 280 to the southern 101. So you do these in pieces, and that is just the way big construction projects go.    I just want to mention the 2016 draft business plan that was approved, because I think it is a knockout achievement. Not only does it reduce the cost for the initial segment, it is easier to get through that mountain range than the southern mountain range, and it will be so important economically not only for Silicon Valley and my district but I think also in the Central Valley.    In San Jose, traffic congestion is through the roof, and affordable housing is a big challenge. The median price of a house in the bay area in June was $751,000. The median price of a house in Santa Clara County last month was $1.045 million. So we are bursting at the seams, and the capacity to connect the Central Valley and Silicon Valley is going to help Silicon Valley survive, and it is also going to provide tremendous job opportunities for people who live in the Central Valley. It will take an hour to get from Merced to San Jose. My chief of staff lives in San Jose and it takes her longer to get from parts of San Jose to downtown.    So this is really going to be an economic lift-up for our State, and it is worth remembering that most of the job growth in the State of California actually occurred in Silicon Valley. We got plenty of jobs, and we are not shy about wanting them to go to people in other regions.    So, as someone said, there is high poverty in the Central Valley. I chair the California Democratic Delegation. Our delegation is very supportive of this high-speed rail project. We have cochairs of the Congressional High-Speed Rail Caucus, Jim Costa, John Larson and myself. So we are really very pleased with what is happening here.    Now, I guess we have a second round of questions coming up, but one of the things that I wanted to ask--and I think it is great that Ms. Feinberg is here. Thank you for coming once again. Mr. Denham, the chairman, asked for the California High-Speed Rail Authority's agreement with the FRA to be reviewed by the GAO last year, and it is my understanding that they have concluded that the California High-Speed Rail Authority has complied with its agreement with the FRA. Do you have any disagreement with that GAO conclusion?</t>
   </si>
   <si>
@@ -344,9 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Ms. Lofgren.    Mr. LaMalfa?</t>
-  </si>
-  <si>
-    <t>LaMalfa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman and panelists. I appreciate it.    What the voters voted for in 2008 was a $33 billion project, a high-speed train, one train, not switching trains, from S.F. to L.A. A year later the number was adjusted up to approximately $42 or $43 billion, adjusted beyond what the voters saw, beyond what the voters approved. And then finally, after much agitating from the State legislature, we had a hearing in November of 2011 where the admission was that there wasn't going to be 1 million jobs created by high-speed rail but something called 1 million job years, and that the cost was no longer just $33 or $43 billion, it was $98.5 billion, triple the price.    Now, if I am seeking to, let's say, enclose my garage and build a bathroom inside, I might get a bid for $33,000, not $33 million, and they tell me the price a few months later is $43,000, and then when the trucks show up and they start construction they say it is $98,500--you can see where I am moving the decimal points here--I am going to say that is a breach of contract. I am going to tell you to take a flying leap, especially since the completion date initially was 2020 and now it is 2033. So I don't get my garage enclosed for an additional double or more of the time.    This is the recent contract with the voters of California. It is why I carried two bills as a new State senator, SB-22, to say don't spend any money until you actually have a plan. You don't even have a plan yet on how you are going to go through Bakersfield, how you are going to go through the Tehachapis, where the funding will come from. You are still $55 billion short of the change projection, down to $68 billion after the scramble, from $98.5 up to $118 scared everybody for a blended system.    So this is indeed something that the taxpayers should be looking at and saying we have been taken to the cleaners on this. That is why my second bill was SB-95 saying put it back on the ballot and ask the voters once again what they think of something that is triple the price, that isn't meeting the mark anywhere near the time, nor are the so-called environmental benefits of this, of the green project, will be saving C02. I almost laughed when I heard one of the solutions during construction would be that they are going to plant trees to offset the concrete and the construction equipment being used in there, since we are worried about C02 these days.    So, Mr. Flashman, I want to drill down with you on that for a moment here. Of the different projects--there are green projects, there are Cap and Trade replacement projects--what are the ones that are the most eligible, the highest priority, the most bang for the buck? Briefly, please.</t>
@@ -1120,11 +1084,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1144,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1172,11 +1132,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1196,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1224,11 +1180,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1248,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1276,11 +1228,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1300,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1328,11 +1276,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1352,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1380,11 +1324,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1404,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1432,11 +1372,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1456,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1484,11 +1420,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1508,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1536,11 +1468,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1560,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1588,11 +1516,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1612,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1640,11 +1564,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1664,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1692,11 +1612,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1716,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1744,11 +1660,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1768,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1796,11 +1708,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1820,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1848,11 +1756,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1872,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1900,11 +1804,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1924,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1952,11 +1852,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1976,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2004,11 +1900,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2028,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2056,11 +1948,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2080,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2108,11 +1996,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2132,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2160,11 +2044,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2184,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2212,11 +2092,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2236,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2264,11 +2140,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2288,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2316,11 +2188,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2340,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2368,11 +2236,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2392,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2420,11 +2284,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2444,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2470,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2496,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2524,11 +2380,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2548,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2574,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2600,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2626,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2652,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2678,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2704,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2730,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2756,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2782,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2808,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>79</v>
-      </c>
-      <c r="H67" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2834,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2860,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2886,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2912,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2938,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2964,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2990,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3016,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3044,11 +2860,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3068,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3094,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3120,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3146,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3172,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3198,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3224,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3250,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3276,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3304,11 +3100,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3328,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3354,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3380,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3406,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3432,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3458,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3484,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3510,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3536,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3562,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3588,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3614,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3640,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3666,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3692,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3718,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3744,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3770,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3796,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3822,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3848,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3874,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3900,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3926,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3952,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3978,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4004,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4030,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4056,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4084,11 +3820,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4108,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4136,11 +3868,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4160,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4186,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4212,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4238,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4264,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4290,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4316,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4342,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4368,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4394,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4420,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4446,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4472,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4500,11 +4204,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4524,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4552,11 +4252,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4576,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4604,11 +4300,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4630,11 +4324,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4654,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4680,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4706,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4732,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4758,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4786,11 +4468,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4810,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
-      </c>
-      <c r="G144" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4836,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4862,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>78</v>
-      </c>
-      <c r="G146" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4888,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4914,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
-      </c>
-      <c r="G148" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4940,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4966,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>78</v>
-      </c>
-      <c r="G150" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4992,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5018,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>78</v>
-      </c>
-      <c r="G152" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5044,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5070,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>78</v>
-      </c>
-      <c r="G154" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5096,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5122,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>78</v>
-      </c>
-      <c r="G156" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5148,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5174,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>78</v>
-      </c>
-      <c r="G158" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5202,11 +4852,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5226,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5252,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5278,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5304,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5330,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5356,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5384,11 +5020,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5408,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5434,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5462,11 +5092,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5486,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5512,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5538,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5564,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5590,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5616,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5642,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5668,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5694,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5720,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5746,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5772,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5798,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5824,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5850,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5876,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5902,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5928,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5954,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5980,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6006,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6032,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6058,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6084,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6110,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6136,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6162,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6188,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6214,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6242,11 +5812,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6266,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>110</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6294,11 +5860,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6318,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6344,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>99</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6370,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6396,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6422,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6448,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6474,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6500,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6526,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6552,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6580,11 +6124,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6604,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6632,11 +6172,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6656,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6684,11 +6220,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412403</t>
   </si>
   <si>
+    <t>Denham</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Denham. The subcommittee will come to order.    I ask unanimous consent that noncommittee members be permitted to sit with the committee at today's hearing and ask questions.    Without objection, so ordered.    First let me welcome our guests in attendance, as well as our witnesses, and I want to thank Ms. Pelosi. We had a nice conversation. This is a beautiful Federal building, and we enjoy this beautiful space being here in the bay area.    This hearing is about one thing, and that is continued oversight by the Federal Government. There is a huge investment by the Federal taxpayers, as well as by the State taxpayers. So the main focus of this hearing will be on that oversight. This project has been awarded nearly $4 billion in Federal funding, and it represents nearly 40 percent of all high-speed rail funding awarded by the Federal Railroad Administration, the     That is why I focused on this project since I became chairman of the Subcommittee on Railroads, Pipelines, and Hazardous Materials, and unfortunately I have watched as costs have gone up and up, and project plans have continued to change. When the voters of California approved this as Prop. 1A, they approved a $33 billion project that had equal funding from State, Federal, and private investors. Since then, this project has risen to $43 billion, then over $100 billion, and then cut back down to $64 billion by cutting off San Diego and Sacramento.    The 2016 business plan recently approved by the authority also had a new focus, connecting the Central Valley segment with the bay area via an electrified Caltrain corridor, with no near-term progress on closing the existing rail gap across the Tehachapi Mountains in southern California, meaning right now Amtrak has to let their passengers off to get on a bus, take the bus over the Tehachapis, and then get back on a train again. So this is something that we are going to have to address as this project moves forward through phase 1.    Today I want to explore what was originally promised to Californians when they approved Prop. 1A in 2008, where the project stands now, and whether there is a realistic plan to complete the project that was sold to voters. We must also look at the Federal taxpayer and what they are going to be on the hook for in the future. Meeting the project mandate may be more difficult than before if the 25-percent set-aside from the California Cap and Trade Program does not produce the revenues the authority is currently counting on. The early Cap and Trade options have not raised the revenue the State was originally expecting, and I look forward to discussing my concerns on that issue today.    I am also happy FRA Administrator Feinberg could be with us today, as her agency recently amended the grant agreement with the authority for the sixth time. I want to discuss the changes made in that agreement and also talk more broadly about what the ongoing Federal involvement with this project will be.    California voters narrowly passed in 2008 this plan before voters. If the project is going to move forward beyond current activities, we need to know what the State and Federal obligation is. If the authority can't provide specific deliverables and a timeframe, then I believe it would be time for Californians to go back to the polls to vote on whether to continue this project.    We have many problems facing California, most notably one of the worst droughts that we have ever seen. The money allocated to this project was part of the Federal stimulus package, which was done 8 years ago. In a State grappling with the lack of an adequate water infrastructure, we could have built long-term, sustainable water storage for a fraction of the cost. There are many shovel-ready projects that will directly benefit millions of California residents, including a number of rail projects in the bay area, a number of transportation projects across the State, and most critical is water infrastructure that could be built.    I would now like to recognize the ranking member, Mike Capuano from Massachusetts, for 5 minutes for any opening statement he may have.</t>
   </si>
   <si>
     <t>400063</t>
   </si>
   <si>
+    <t>Capuano</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman.    First of all, thank you all for having us here, and thank you for coming.    This is an important issue, as is any time the Federal Government spends your tax dollars. In this particular case, it is billions of dollars. I myself am a strong proponent of the concept of high-speed rail any place in this country that can support it. Certainly, I think there is a good argument by any stretch of the imagination that California should be able to handle and support a high-speed rail system.    I live in an area where what we have is old, and we struggle with problems of how to get it to a true high-speed system. You are building a new one, and my hope is that you can lead the way to show us how to improve our system.    One way or the other, America is going to have high-speed rail across this country. It will take time, it will cost money, and there will be mistakes made. There may or may not have been mistakes made here already, or there will be if there hasn't been already. That is normal. That is a normal part of the process. But I think that makes these oversight hearings even more important. Even if you are doing the best job possible, there are still differences of opinion, there are still people who make mistakes, things happen that you didn't anticipate, and therefore it is our responsibility to try our best to make sure that Federal tax dollars are spent as wisely as possible. That is why I wanted to come to California, and that is why I am looking forward to the testimony here today.    With that, I will yield back so we can hear from people who know what they are talking about.</t>
   </si>
   <si>
@@ -67,30 +82,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Feinberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Feinberg. Chairman Denham, Ranking Member Capuano, other Members who have joined us, thank you for inviting me to today's hearing.    Much attention has been paid to the urgent need for the United States to build a modern transportation system to keep up with our growing population, increased congestion, and more diverse economy. Congress rightfully recognized nearly 8 years ago that in order to achieve this goal, our transportation system must include more reliable, more frequent, and faster passenger rail service. Congress passed two landmark pieces of legislation that established FRA's High-Speed Rail Program, and then through the Recovery Act provided the seed money to build the system.    FRA and Congress conceived of a high-speed and intercity passenger rail program to be national in scope but led by the State in execution. With the launch of the program, there was immediate and significant interest. States submitted nearly 500 applications requesting more than $75 billion worth of projects, far exceeding the funds Congress had made available. FRA eventually awarded $10 billion to nearly 150 rail projects, including $3.5 billion to California.    With California's growing population, the State was understandably focused on building out a high-speed rail system that would serve its growing communities, because 2 railroad tracks can carry as many travelers in 1 hour as 16 lanes of a congested freeway. As the chairman knows and as anyone who lives, works, or visits the bay area or the Los Angeles area knows, they can recount far too many nightmare stories about congestion on the roads and in the sky: vehicular and air traffic at all times of day, constant commuters, families and businesses, hours of time and resources they can spend otherwise.    The L.A. to San Francisco flight alone has become one of the busiest and most delay-prone air markets in the United States. One in every five flights is late by more than an hour. And the challenges of moving more people and goods in a safe and efficient way will only continue to grow. By 2050, California is predicted to be home to another 12 million people. To add capacity to California's transportation system, the California High-Speed Rail Authority is leveraging the majority of the $3.5 billion that FRA awarded to construct the first 119 miles of rail in California's Central Valley.    The Federal investment made in California's high-speed rail is significant, and FRA takes its obligations to protect the taxpayers' investment seriously. FRA closely monitors the California project, as we do with all grants. With all major and ambitious transportation projects, there have been and remain important challenges that demand continued attention.    Consistent with grants management and oversight best practices, FRA works closely with all of our grantees to ensure that taxpayer dollars are spent wisely and that contractual agreements are current and adhered to.    To be clear, and despite reporting to the contrary, ensuring that a project is meeting its obligations and amending contractual grant agreements is not only a due diligence requirement but it is also standard practice for any agency that oversees grants.    Last spring, the California High-Speed Rail Authority and FRA executed the Sixth Amendment to ensure that the contractual agreement that exists between the two entities accurately reflects the current project status. California High-Speed Rail Authority also requested FRA's approval of a $60 million working capital advance for right-of-way acquisitions needed to allow construction work to progress and remain on schedule.    A working capital advance is one of the approved payment methods allowed under the Federal Government's stringent grant payment rules. This tool is available to any grantee and can be used effectively for timely right-of-way acquisition on large infrastructure projects across the country. In fact, other agencies, like the Department of Health and Human Services and the Department of Homeland Security, also use the same method of payment.    Mr. Chairman, in closing, for centuries leaders in California and across the United States have fulfilled bold projects. Many of these projects haven't been easy or without challenges, but they are worth the persistence and dedication because they are necessary to move our country forward. I believe this project is no different.    We continue to look forward to working with California, with Members of Congress, with your staff and your committee as we continue to make progress in bringing this project to completion. Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Ms. Feinberg.    Mr. Richard, the floor is yours.</t>
   </si>
   <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richard. Thank you. Chairman Denham, Ranking Member Capuano, and other Members of this committee and the Congress, my name is Dan Richard. I am the chairman of the California High-Speed Rail Authority Board. I appreciate the opportunity to appear before you today to provide an update on the progress that California has made in developing the high-speed rail system.    The Federal Government, through actions by the Congress and the administration, has provided some $3.5 billion to commence design and construction of the system, funds that have proven vital to our initial efforts. Accordingly, oversight by the Congress through this committee is an important function to bolster public confidence that these funds are being well spent.    I am pleased also to share this panel with Administrator Feinberg of the Federal Railroad Administration. FRA has been a strong partner in this program, and we appreciate her leadership and that of her staff and her predecessors.    Mr. Chairman, I would like to summarize four key points in outlining our current status and progress.    First, the California high-speed Rail program is an essential element of the State's endeavor to build a sustainable economic future. The voters in 2008 approved what will ultimately be an 800-mile system with the first phase of 520 miles to connect Los Angeles, San Francisco, and the Central Valley. But what is more important here is that California is building much more than a high-speed train system. Our legislature in 2012 embarked on a $13 billion statewide rail modernization. High-speed rail is the backbone of that system, but that system extends to major improvements such as Caltrain electrification here on the San Francisco peninsula, improved Amtrak service, regional rail like Metrolink in Los Angeles, the ACE Train that is important in your district, Mr. Chairman, and much more.    All told, this rail modernization of California through statewide, regional and local systems will vault us into a more sustainable future and one that is also cheaper to build and maintain, much cheaper, in fact, than the cost of the equivalent mobility of new highways and airports required to sustain the 50 million people that we must serve by the middle of this decade--excuse me, by the middle of the century.    Second, high-speed rail construction in California is now underway. It is proceeding smoothly, and we are maintaining effective management and cost control of the program. We now have three sets of construction packages totaling $3 billion in progress across about 110 miles of the Central Valley. Hundreds of workers and scores of companies, including small business and disabled veteran businesses, are on the job.    But the indirect impacts have engaged thousands more already across the State. All of these construction contracts have come in under our engineer's estimates. In fact, the combined total, considering our low and high ranges, is that we have seen winning bids come in between $500 million and $1.7 billion less than we estimated these packages would cost us.    We have overcome startup problems like slower-than-expected right-of-way acquisition and higher costs for third-party contracts, but we are still well within our budget contingencies.    Third, our recent 2016 business plan marked a milestone in the development of the project. By emphasizing the completion of an initial operating segment from the Central Valley to the Silicon Valley, we laid out a plan that can be accomplished with available funds that are in hand or expected. Silicon Valley is the engine not only of California's economy but of the Nation's, and yet it faces severe limitations on housing and expansion. The Central Valley is historically an area of underinvestment. The prospect of connecting these areas of our State has generated enthusiasm in both regions. Significantly, based on more advanced engineering and experience to date, now our estimate for the total system completion has been reduced by some $6 billion.    My last point is that while we know this program has a controversial history and has had its share of hurdles, we are not only on track but I want to emphasize that we are absolutely fulfilling the purposes of the State bond act that launched this effort.    With respect, Mr. Chairman, I noticed that there was a statement that was included in the committee's notice of this hearing that said that the program no longer provides full high-speed rail service from Los Angeles to San Francisco. This is not correct. We are absolutely fulfilling the mandate of providing 200-mile-per-hour electrified service that is designed to achieve transit from L.A. to San Francisco in 2 hours and 40 minutes or less without an operating subsidy. There are no changes from that commitment.    As you know, we adopted the so-called blended system to share tracks with regional rail in urban areas like Caltrain, but that only constitutes about 15 percent of the track area, and this was suggested by one of your colleagues in the Congress and by local elected Representatives, and was recommended by an independent peer review group as something that could dramatically reduce costs while meeting the bond act requirements.    Unfortunately, this is one of many false narratives that have grown up around this program. I hope today's hearing will allow us to examine those issues and correct the record.    Mr. Chairman, thank you again for the honor of appearing before this committee. We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Richard.    Mr. Hartnett, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Hartnett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hartnett. Thank you very much, Mr. Chairman and Members. Good morning. Thank you for your attention to this issue and for inviting us to share a local perspective.    I am Jim Hartnett, the executive director of the Caltrain commuter rail system and the CEO of the San Mateo County Transit District. I am also a past member of the California High-Speed Rail Authority Board of Directors and a former mayor of Redwood City.    When voters approved Prop. 1A in 2008, it wasn't just about connecting the State with high-speed rail. It was also about improving transportation connectivity on existing systems. The measure included significant resources dedicated to upgrading local transportation services to feed the statewide network and to improve mobility options for surrounding communities.    Large-scale, visionary projects like high-speed rail can and should be planned and delivered in a way that prioritizes investments in local improvements while also making incremental but significant progress toward the long-term vision.    During my time on the California High-Speed Rail Authority Board, I worked with my colleagues to ensure that this approach would be embraced. The product of those efforts was SB 1029, which appropriated funding for high-speed rail construction in the Central Valley, but also directed over $1 billion for local and regional improvements on the bookends in southern California and the bay area. In our case, this State funding is being used to leverage over $1 billion in local, regional, and Federal funds to upgrade the Caltrain corridor and allow us to deliver more service at a time when our communities need it the most.    Caltrain is struggling to accommodate unprecedented regional growth. Two thousand sixteen marked our sixth consecutive year of record-setting ridership. As Highway 101 and 280 have become more and more congested, employers have turned to Caltrain as the preferred commute option between San Francisco and Silicon Valley. As a result, our peak-hour service is well over 100 percent capacity, with ridership on some trains exceeding 125 percent of available seats.    The Caltrain corridor is arguably the most economically productive area in the State. The communities served by our 51-mile railroad are responsible for 14 percent of the State's GDP, 20 percent of California tax revenue, and are the birthplace of over one-half of California patents.    However, the region cannot continue to thrive without equipping the 150-year-old rail corridor with a modernized transit system capable of accommodating current and future ridership demand.    Fortunately, with local, State and Federal help, Caltrain has been able to advance the Caltrain Modernization Program. The centerpiece of this program is the transformation of the corridor from its diesel fleet to a system that features high-performance electric trains capable of delivering cleaner, faster, and more frequent service to peninsula communities.    When complete, electrification of Caltrain will be able to serve more riders at more stations. As a result, 619,000 vehicle miles traveled will be eliminated every day and the system's emissions will be reduced by 97 percent, eliminating over 176,000 tons of CO2 annually.    Caltrain and the California High-Speed Rail Authority have worked with several local, regional and Federal partners to secure funding for the Caltrain Modernization Program as an early investment in the high-speed rail system. Six bay area funding partners have agreed to commit significant local funds in order to leverage over $700 million in high-speed rail and State funding, and these investments have positioned the project to receive almost $650 million in Federal Transit Administration discretionary grant funds.    Thanks to these commitments, Caltrain was able to authorize contractors to begin design work on the project. The next steps will be construction of the project and the procurement of electric trains, work that will create over $2.5 billion in economic value, including almost 10,000 new jobs during construction.    Meanwhile, we are also collaborating with the California High-Speed Rail Authority as it begins the environmental process for additional improvements that will be needed to equip the corridor to accommodate high-speed rail service. When high-speed rail is extended north of San Jose, Caltrain and the California High-Speed Rail Authority will share the corridor and operate on a blended system to San Francisco. The planning and design of these improvements will be carefully considered to ensure that impacts on surrounding neighborhoods are minimized and benefits are realized.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Hartnett.    Mr. Flashman, you are recognized.</t>
   </si>
   <si>
+    <t>Flashman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Flashman. Thank you, Chairman Denham. Good morning, Chairman Denham, Mr. Capuano, and Congress Members. Thank you for the opportunity to testify today.    Let me start by saying that I have no conceptual problem with high-speed rail. High-speed rail systems in other countries have shown they can, if planned and implemented prudently, be cost-effective and improve transportation efficiency while reducing greenhouse gas emissions.    Here in California, however, too much has been promised and too little will be delivered. I will focus on legal issues affecting the California high-speed rail project's use of State funds and the associated risk to the Federal Treasury from the California High-Speed Rail Authority's, or CHSRA's, use of Federal grant funds for construction and other activities.    Before doing that, I want to comment briefly on CHSRA's current financial situation and why this issue is important. As my written testimony explains in more detail, CHSRA currently has only two sources of funds: $3.5 billion in Federal grant funds, and State funds, primarily Prop. 1A funds, plus a much smaller contribution from the greenhouse gas Cap and Trade auction proceeds.    Prop. 1A asked that CHSRA seek private funding, but no private entity has stepped forward to invest funds in the project to this point. There are good reasons for that. CHSRA has over $6 billion in appropriated funds, but restrictions on using Prop. 1A funds for construction prevent CHSRA from using those funds. Consequently, CHSRA current construction funding is limited to its Federal grants plus a small amount of Cap and Trade auction proceeds. In essence, CHSRA is like a steam engine with almost no coal left to shovel in its fire box. It may keep going for a while longer, but it will eventually run out of steam and stop cold.    The California Legislature, in writing Prop. 1A, was aware that voters were worried about the risk in approving more general obligation bonds that would eventually be on their shoulders. Consequently, it put into the measure what the California Court of Appeals has called a financial straitjacket, intended to reassure voters that the funds would not be wasted. There are stringent procedural and substantive requirements on how and when CHSRA can use the bond funds.    While the courts have allowed the legislature to appropriate bond funds without fully complying with Prop. 1A, those same courts have made clear that before those funds can be used for construction, CHSRA will have to comply with Prop. 1A's requirements. With CHSRA's currently politically motivated design, that is virtually impossible.    Prop. 1A requires CHSRA to show it has available all the funds needed to complete construction of a usable segment that will be suitable and ready for high-speed rail operation. CHSRA optimistically estimates that its current usable segment from Wasco to San Jose will cost over $20 billion. At most, CHSRA has maybe $6 to $8 billion in available funding. Unless CHSRA can show where it has squirreled away over $10 billion, it cannot meet that requirement.    In addition, service on that segment must be able to run without a public operating subsidy. Even if you accept CHSRA's highly optimistic ridership estimates, its usable segment is very unlikely to be able to do so. Consequently, no Prop. 1A funds can be used to build that segment.    Even if CHSRA could meet these procedural requirements, Prop. 1A's substantive requirements would still block use of Prop. 1A funds. Prop. 1A requires that trains be able to travel from the Transbay Transit Center in San Francisco to Los Angeles Union Station in no more than 2 hours and 40 minutes. With the indirect route that CHSRA has chosen, making the trip in less than 3 hours is basically impossible. Nor can the current legislatively mandated blended system meet the required 30-minute travel time between San Francisco and San Jose.    Further, the blended system, which requires CHSRA and Caltrain to share the same tracks between San Jose and San Francisco, also precludes meeting Prop. 1A's 5-minute headway requirement.    As for using Cap and Trade funds, that system is currently under legal challenge. Even if it survives, the current funding is only $4.5 million this year, and Cap and Trade's authorization runs out in 2020. With the legislature having rejected its extension and indicating a preference for a revenue-neutral carbon tax where the collected funds would be rebated to businesses and the public, that would leave no proceeds to fund high-speed rail.    In short, despite its optimistic statements at this point, CHSRA has no viable financial way forward.    As I said at the start, I believe a prudently planned and executed high-speed rail system could be beneficial for California. Unfortunately, CHSRA has given no indication that it intends to rethink its current disastrous course, which will result in more litigation but no useful rail project.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Flashman.    Mr. Hunter, you may proceed.</t>
   </si>
   <si>
+    <t>Hunter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hunter. Good morning, Chairman Denham, Ranking Member Capuano, members of the subcommittee. I appreciate the opportunity to appear before you today to discuss the California high-speed rail construction program.    I am the president of the State Building and Construction Trades Council of California. I am an iron worker by trade and spent 27 years working in the field building skyscrapers and bridges throughout California. Our council represents in excess of 400,000 skilled and trained California construction workers, including 48,000 apprentices that have graduated or the equivalent from California high schools.    Each and every one of these workers work for private construction companies building our harbors, airports, water treatment plants, freeways, transit systems, dams, as well as the vast majority of commercial and residential projects throughout the State.    These contractors that we work for need a streamlined, highly trained, competent work force to compete, using the least amount of people, building projects in the shortest timeframe, done once, done right, under the lowest bid.    The workforce that we represent drives the economy of California. They set aside a portion of their hourly wage for their pension and medical benefits and even in retirement are not a burden to the State or the Federal Government.    I am very proud to report that at this very moment, several hundred of these workers, who are residents of the Central Valley, are on the job building the high-speed rail in the Central Valley. This is an area where, during the Great Recession, we have had unemployment in excess of 60 percent, and the Valley itself has been a traditionally--has had some of the highest unemployment statewide in the general population. Now these workers are building the high-speed rail system that will transform the Valley and all of California.    Of course, I am happy that these workers are earning a paycheck, supporting their families, and driving the economy. But I am also gratified that they are creating a third mode of transportation, something that California desperately needs right now and that will greatly benefit the people of the State of California for generations to come.    Furthermore, the project is being built efficiently and economically. The best value bids for the first construction packages have ranged from 13 to 45 percent below the engineer's estimated cost, resulting in savings of hundreds of millions of dollars so far.    Decades from now, I believe California will look back with gratitude at the vision of this generation's leaders, whose foresight resulted in a magnificent, efficient high-speed rail system, less congestion on our roads, airports, and a healthier environment. We simply cannot afford to not build this vitally important infrastructure project.    California's transportation system is already overtaxed, and our population will pass 50 million by mid-century. Doing nothing will ultimately cost far more than building this essential system today. High-speed rail is the only viable means of making sure our transportation infrastructure can meet our growing demand.    Continuing to build more and more freeways and airports would be more expensive, more environmentally damaging, and less efficient for moving millions of Californians up and down the State.    In fact, the nonpartisan Legislative Analyst's Office has reported that the project would, and I am quoting, ``alleviate the need to build over 3,000 miles of freeway, and 5 airport runways and 90 new departure gates--at a cost of nearly $100 billion--that would otherwise be necessary to accommodate interstate travel by 2030.''    By saving $100 billion, the project pays for itself. To remove any doubt, just look at the spectacular success of high-speed rail around the world. We have learned from places like Spain, France, China, Germany, Japan, and many other countries that high-speed rail is the more efficient and preferred mode of transportation between population centers between 100 and 500 miles. That is precisely the corridor California's high-speed rail will serve.    High-speed rail is working breathtakingly well everywhere else in the world. California needs its great benefits even more. As the 2008 ballot summary language points out, high-speed rail will provide long-distance commuters with a safe, convenient, affordable, clean and reliable alternative to driving and high gas prices. It will reduce traffic congestion on California's highways and at the State's airports. It will reduce California's dependence on foreign oil. It will reduce air pollution and global warming greenhouse gases. It will provide fast, time-saving connections between California's major population hubs. It will bring thousands of good jobs to working families across the State.    We cannot afford to fall behind the rest of the country, the rest of the world. Our State needs the economic, environmental, and quality-of-life benefits of a third mode of a clean, fast, mass transit system to meet the needs of our children and grandchildren just as generations before us paid for and built the infrastructure that has supported today's population and economy. We need to build this system.    I would say that we have built the infrastructure of California, the building trades, for over 130 years. We were criticized heavily on the Golden Gate Bridge. It was the first bridge to nowhere. The Hoover Dam----</t>
   </si>
   <si>
@@ -211,6 +241,9 @@
     <t xml:space="preserve">    Mr. Denham. Mr. Huffman, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Huffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huffman. Appreciate that. Thank you.    Thank you, Mr. Chairman, for having this hearing, and thanks to our terrific witnesses for joining us.    I especially want to welcome you, Administrator Feinberg. It seems like just yesterday I was touring in Marin and Sonoma County on the Smart Rail project, which is an exciting project where our communities are bringing back commuter rail. Thanks to the support of your agency and others, that is going to be reality in just a couple of more months. It will open on day one as one of the safest passenger rail systems in the United States, again with your support for Positive Train Control, so thank you very much.    I appreciate that Mr. Hunter in his remarks reminded us that there was another really big, transformative, and yet controversial project nearby. It happens to be the defining southern feature of my congressional district, the Golden Gate Bridge. What people sometimes don't appreciate, because it is such an iconic piece of infrastructure now that is taken for granted, is that it was very controversial in its time. Over 2,000 lawsuits were filed to stop this project in the 1930s. It went through several different designs. They were all very controversial. There were huge cost overruns. Yet, if you went to my district today, or I would say anyplace else in California, and asked people if you would like to go backward, they would probably laugh at you. It has been a huge success.    So when we talk about this project and the promise of high-speed rail, we should talk about cost, we should talk about budgets and plans and the challenges this project faces. But we should also think about the cost of inaction and the benefits it brings.    So, Mr. Richard, I am especially grateful to have the conversation with you at this point in the project's history because in a prior life as a State legislator on the budget committee, I do remember lots of conversations with your predecessor where I had lost confidence in the ability of California to realize the promise and the vision of high-speed rail. The project was in complete drift, and yet today construction is underway. Construction contracts are coming in under budget, and it does seem that through innovation and creativity we are poised to actually make this happen in California, and it is in no small part due to your leadership, so thank you for that.    That doesn't mean your critics have gone away, so I want to ask you about a couple of points that Mr. Flashman has very eloquently laid out in his remarks. Specifically--and these are points that we have heard for some time now as criticisms of the project--the assertion that financially you can't get there from here because of limitations and constraints on funding in Prop. 1A and the Federal funding, that when you add it all up, the dollars just don't connect and you can't get there from here.    And the second one is the impossibility of achieving the speed and travel times that have been promised, I believe, between Wasco and San Jose.    So I want to give you a chance to speak directly to those claims that have been levied, and also to the extent you can because, again, these are not new claims--they have been part of litigation--what the courts have said as well about these matters.</t>
   </si>
   <si>
@@ -226,6 +259,12 @@
     <t>412482</t>
   </si>
   <si>
+    <t>Farenthold</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much.    Administrator Feinberg, I would like to start with you. There is a high-speed rail project entirely privately funded going on in Texas, my home State, right now. They are looking at going from Houston to Dallas at an estimated cost of about $10 billion for the project cost.    I understand things are more expensive in California. I just paid $3 for a Dr. Pepper here. But we are looking at money six times more expensive for a rail that isn't even twice as long. Do you have any thoughts on the cost differential? And then I will pass that along to Mr. Richard as well, if he wants to. I will allow you to pump that to Mr. Richard if you would like to.</t>
   </si>
   <si>
@@ -283,6 +322,9 @@
     <t xml:space="preserve">    Mr. Denham. Ms. Lofgren?</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you. Thank you, Mr. Chairman, for allowing me to participate in this hearing.    It has already been said that it is not just what we are building but what would happen if we didn't build this, and I think it is important to keep that in mind. California is going to have a lot of growth. It needs to be accommodated. To try to meet that growth with airports and roads is just not viable.    I know also, before I ever ran for Congress, I was in local government, and I remember building big projects. It is easy to criticize, harder to build. When we built Highway 85 down in Santa Clara County, the section from 101 to 280 was done and it took decades to get 280 to the southern 101. So you do these in pieces, and that is just the way big construction projects go.    I just want to mention the 2016 draft business plan that was approved, because I think it is a knockout achievement. Not only does it reduce the cost for the initial segment, it is easier to get through that mountain range than the southern mountain range, and it will be so important economically not only for Silicon Valley and my district but I think also in the Central Valley.    In San Jose, traffic congestion is through the roof, and affordable housing is a big challenge. The median price of a house in the bay area in June was $751,000. The median price of a house in Santa Clara County last month was $1.045 million. So we are bursting at the seams, and the capacity to connect the Central Valley and Silicon Valley is going to help Silicon Valley survive, and it is also going to provide tremendous job opportunities for people who live in the Central Valley. It will take an hour to get from Merced to San Jose. My chief of staff lives in San Jose and it takes her longer to get from parts of San Jose to downtown.    So this is really going to be an economic lift-up for our State, and it is worth remembering that most of the job growth in the State of California actually occurred in Silicon Valley. We got plenty of jobs, and we are not shy about wanting them to go to people in other regions.    So, as someone said, there is high poverty in the Central Valley. I chair the California Democratic Delegation. Our delegation is very supportive of this high-speed rail project. We have cochairs of the Congressional High-Speed Rail Caucus, Jim Costa, John Larson and myself. So we are really very pleased with what is happening here.    Now, I guess we have a second round of questions coming up, but one of the things that I wanted to ask--and I think it is great that Ms. Feinberg is here. Thank you for coming once again. Mr. Denham, the chairman, asked for the California High-Speed Rail Authority's agreement with the FRA to be reviewed by the GAO last year, and it is my understanding that they have concluded that the California High-Speed Rail Authority has complied with its agreement with the FRA. Do you have any disagreement with that GAO conclusion?</t>
   </si>
   <si>
@@ -311,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Ms. Lofgren.    Mr. LaMalfa?</t>
+  </si>
+  <si>
+    <t>LaMalfa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman and panelists. I appreciate it.    What the voters voted for in 2008 was a $33 billion project, a high-speed train, one train, not switching trains, from S.F. to L.A. A year later the number was adjusted up to approximately $42 or $43 billion, adjusted beyond what the voters saw, beyond what the voters approved. And then finally, after much agitating from the State legislature, we had a hearing in November of 2011 where the admission was that there wasn't going to be 1 million jobs created by high-speed rail but something called 1 million job years, and that the cost was no longer just $33 or $43 billion, it was $98.5 billion, triple the price.    Now, if I am seeking to, let's say, enclose my garage and build a bathroom inside, I might get a bid for $33,000, not $33 million, and they tell me the price a few months later is $43,000, and then when the trucks show up and they start construction they say it is $98,500--you can see where I am moving the decimal points here--I am going to say that is a breach of contract. I am going to tell you to take a flying leap, especially since the completion date initially was 2020 and now it is 2033. So I don't get my garage enclosed for an additional double or more of the time.    This is the recent contract with the voters of California. It is why I carried two bills as a new State senator, SB-22, to say don't spend any money until you actually have a plan. You don't even have a plan yet on how you are going to go through Bakersfield, how you are going to go through the Tehachapis, where the funding will come from. You are still $55 billion short of the change projection, down to $68 billion after the scramble, from $98.5 up to $118 scared everybody for a blended system.    So this is indeed something that the taxpayers should be looking at and saying we have been taken to the cleaners on this. That is why my second bill was SB-95 saying put it back on the ballot and ask the voters once again what they think of something that is triple the price, that isn't meeting the mark anywhere near the time, nor are the so-called environmental benefits of this, of the green project, will be saving C02. I almost laughed when I heard one of the solutions during construction would be that they are going to plant trees to offset the concrete and the construction equipment being used in there, since we are worried about C02 these days.    So, Mr. Flashman, I want to drill down with you on that for a moment here. Of the different projects--there are green projects, there are Cap and Trade replacement projects--what are the ones that are the most eligible, the highest priority, the most bang for the buck? Briefly, please.</t>
@@ -1034,7 +1079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1087,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,5165 +1109,5969 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>113</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>113</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>113</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>113</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>113</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>113</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>113</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>113</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
       <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>69</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
       <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>69</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
       <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>69</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G148" t="s">
+        <v>81</v>
+      </c>
       <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>69</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
       <c r="H150" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>69</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G152" t="s">
+        <v>81</v>
+      </c>
       <c r="H152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>69</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G154" t="s">
+        <v>81</v>
+      </c>
       <c r="H154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>69</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G156" t="s">
+        <v>81</v>
+      </c>
       <c r="H156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I156" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G158" t="s">
+        <v>81</v>
+      </c>
       <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>102</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>102</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>102</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>102</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>113</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>113</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>113</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>113</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>25</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>113</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>113</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>25</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>113</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>25</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>113</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>113</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>25</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>113</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>25</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>113</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>113</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>113</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>25</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>113</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>25</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>113</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>113</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
       <c r="H202" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>102</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
       <c r="H204" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I204" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>25</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
       <c r="H206" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I206" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>28</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
       <c r="H208" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>25</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
       <c r="H210" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I210" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>25</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G213" t="s">
+        <v>25</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
       <c r="H214" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G215" t="s">
+        <v>25</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
       <c r="H216" t="s">
-        <v>223</v>
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21416.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412403</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Denham</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400063</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Capuano</t>
   </si>
   <si>
@@ -257,6 +266,9 @@
   </si>
   <si>
     <t>412482</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Farenthold</t>
@@ -1079,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,7 +1099,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,5966 +1124,6340 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>102</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>113</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>117</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>113</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>113</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>117</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>113</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>117</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>113</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>113</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>113</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>117</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>113</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>117</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>113</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>117</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>113</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>117</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>113</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>113</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>117</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>28</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>34</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>37</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>37</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>75</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>75</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H144" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>28</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G146" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>28</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H148" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G150" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G152" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H152" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G154" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H154" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I154" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>25</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G156" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H156" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I156" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>22</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>25</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G158" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H158" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>102</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>106</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>102</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>106</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>102</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>106</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>28</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>28</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>102</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>106</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>113</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>117</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>28</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>113</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>117</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>28</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
-      </c>
-      <c r="G174" t="s">
-        <v>113</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>117</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>28</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="G176" t="s">
-        <v>113</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>117</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>28</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>113</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>117</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>28</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" t="s">
-        <v>113</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>117</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>28</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
-      </c>
-      <c r="G182" t="s">
-        <v>113</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>117</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>28</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s">
-        <v>113</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>117</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>28</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s">
-        <v>113</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>117</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>28</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>113</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>117</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>28</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>113</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>117</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>28</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>113</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>117</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>113</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>117</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>28</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>113</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>117</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>113</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>117</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>113</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>117</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>102</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>106</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G204" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I204" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J204" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" t="s">
-        <v>25</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>28</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J206" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>28</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I208" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J208" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>25</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>28</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J210" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>25</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>28</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>25</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>28</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>25</v>
-      </c>
-      <c r="H215" t="s"/>
-      <c r="I215" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
+        <v>28</v>
+      </c>
+      <c r="I215" t="s"/>
+      <c r="J215" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>238</v>
+        <v>16</v>
+      </c>
+      <c r="J216" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
